--- a/design/MetaDataModel.xlsx
+++ b/design/MetaDataModel.xlsx
@@ -15,8 +15,173 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>John</author>
+  </authors>
+  <commentList>
+    <comment ref="D5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TODO: nail down this UI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+These named reuse things may just be type ahead lists.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TODO: model this</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TODO: needs analysis/modelling.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>John</author>
+  </authors>
+  <commentList>
+    <comment ref="I10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Are we going to need a comment on a bunch of these fields? Like explaining that the subject works in the capitol, rarely visits the language area?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>John:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+I need to do more work before we should add languages… at issue is this motherTongue vs. fluency issue. Easy if we move to a LanguageOfPerson kind of class… do we want to go that far?
+And how about dialects? They are listed on the session, but not here.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="123">
   <si>
     <t>Title</t>
   </si>
@@ -199,13 +364,210 @@
   </si>
   <si>
     <t>Level</t>
+  </si>
+  <si>
+    <t>Privacy</t>
+  </si>
+  <si>
+    <t>Pseudonym</t>
+  </si>
+  <si>
+    <t>ShortName</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>BirthYear</t>
+  </si>
+  <si>
+    <t>DeathYear</t>
+  </si>
+  <si>
+    <t>OtherResidence</t>
+  </si>
+  <si>
+    <t>Language2</t>
+  </si>
+  <si>
+    <t>Language3</t>
+  </si>
+  <si>
+    <t>PrimaryOccupation</t>
+  </si>
+  <si>
+    <t>OtherOccupation</t>
+  </si>
+  <si>
+    <t>BiographicalSketch</t>
+  </si>
+  <si>
+    <t>ContactInfo</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>English User Doc</t>
+  </si>
+  <si>
+    <t>TA goes into great detail here… we're just going to keep it simple for now</t>
+  </si>
+  <si>
+    <t>Let's wait until we understand this better</t>
+  </si>
+  <si>
+    <t>Bool</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Often unknown… so leave as text so we can say "around 1950"</t>
+  </si>
+  <si>
+    <t>BirthPlace</t>
+  </si>
+  <si>
+    <t>PrimaryResidence</t>
+  </si>
+  <si>
+    <t>Locations</t>
+  </si>
+  <si>
+    <t>Copy image to "images" subfolder, rename the image in some meaningful way (name at time of adding image?), then store name of the image in the record.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>GUID</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Don't show</t>
+  </si>
+  <si>
+    <t>A brief biographical sketch of the person, such as might appear on a "dust jacket".</t>
+  </si>
+  <si>
+    <t>The person's primary means of earning a livelihood</t>
+  </si>
+  <si>
+    <t>Other jobs or occupations in which this person has worked, or in which he or she has work experience.</t>
+  </si>
+  <si>
+    <t>Other languages which this person knows, or in which they have some ability.</t>
+  </si>
+  <si>
+    <t>A second language which this person speaks well.</t>
+  </si>
+  <si>
+    <t>LanguageMotherTongue</t>
+  </si>
+  <si>
+    <t>LanguagePrimary</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>Occupations</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>The person's primary or first language, their mother tongue.</t>
+    </r>
+  </si>
+  <si>
+    <t>NEEDS WORK</t>
+  </si>
+  <si>
+    <t>EnglishFieldName</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Keep Name Private</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>Birth Year</t>
+  </si>
+  <si>
+    <t>Death Year</t>
+  </si>
+  <si>
+    <t>Birth Place</t>
+  </si>
+  <si>
+    <t>Primary Residence</t>
+  </si>
+  <si>
+    <t>Other Residence</t>
+  </si>
+  <si>
+    <t>Primary Occupation</t>
+  </si>
+  <si>
+    <t>Other Occupation</t>
+  </si>
+  <si>
+    <t>Biographical Sketch</t>
+  </si>
+  <si>
+    <t>Contact Information</t>
+  </si>
+  <si>
+    <t>English Field Name</t>
+  </si>
+  <si>
+    <t>Recording Location</t>
+  </si>
+  <si>
+    <t>Recording Location Country</t>
+  </si>
+  <si>
+    <t>Recording Date</t>
+  </si>
+  <si>
+    <t>SubGenre</t>
+  </si>
+  <si>
+    <t>Choices</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>DON’T SHOW FOR NOW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +582,45 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,9 +643,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,23 +945,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.140625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
     <col min="3" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" customWidth="1"/>
     <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="8" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -566,7 +973,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -580,235 +987,278 @@
       <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>52</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>51</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1">
+      <c r="A11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="E12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="I12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="s">
+        <v>120</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -819,135 +1269,153 @@
       <c r="E14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>49</v>
       </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
@@ -958,19 +1426,19 @@
       <c r="E22" t="s">
         <v>36</v>
       </c>
-      <c r="F22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
         <v>36</v>
@@ -978,19 +1446,22 @@
       <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="F23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="H23" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D24" t="s">
         <v>36</v>
@@ -998,16 +1469,22 @@
       <c r="E24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
         <v>36</v>
@@ -1015,53 +1492,65 @@
       <c r="E25" t="s">
         <v>36</v>
       </c>
-      <c r="H25" t="s">
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" t="s">
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
         <v>17</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>19</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
@@ -1069,16 +1558,19 @@
       <c r="E28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
         <v>36</v>
@@ -1086,16 +1578,19 @@
       <c r="E29" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
         <v>36</v>
@@ -1103,10 +1598,13 @@
       <c r="E30" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -1120,10 +1618,13 @@
       <c r="E31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -1137,16 +1638,19 @@
       <c r="E32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
         <v>36</v>
@@ -1154,61 +1658,73 @@
       <c r="E33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="I34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="I36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -1217,44 +1733,592 @@
         <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="I37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
         <v>36</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
+      </c>
+      <c r="I38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
+      <c r="A13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75">
+      <c r="A15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75">
+      <c r="A16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/design/MetaDataModel.xlsx
+++ b/design/MetaDataModel.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="21975" windowHeight="12780"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="6255"/>
   </bookViews>
   <sheets>
     <sheet name="Session" sheetId="1" r:id="rId1"/>
     <sheet name="Person" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="File" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="166">
   <si>
     <t>Title</t>
   </si>
@@ -406,9 +406,6 @@
   </si>
   <si>
     <t>Comment</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <t>English User Doc</t>
@@ -561,6 +558,139 @@
   </si>
   <si>
     <t>DON’T SHOW FOR NOW</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>WordCount</t>
+  </si>
+  <si>
+    <t>WordCount.IsEstimate</t>
+  </si>
+  <si>
+    <t>From Simons MD_Plan</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Will need to help with the estimate, by asking for a wpm  and multiplying times the recording length</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Publishers</t>
+  </si>
+  <si>
+    <t>Recordist</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>DocumenterPeople</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Choice: Unknown, M, F</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>PlaceOfL1Learning</t>
+  </si>
+  <si>
+    <t>MothersLanguage</t>
+  </si>
+  <si>
+    <t>FathersLanguage</t>
+  </si>
+  <si>
+    <t>InformedConsentScan</t>
+  </si>
+  <si>
+    <t>Simons BOLD course</t>
+  </si>
+  <si>
+    <t>Simons, Mead.</t>
+  </si>
+  <si>
+    <t>Mead</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Bit Depth</t>
+  </si>
+  <si>
+    <t>Sampling Rate</t>
+  </si>
+  <si>
+    <t>Analog Gain</t>
+  </si>
+  <si>
+    <t>Digital Gain</t>
+  </si>
+  <si>
+    <t>RelativePath</t>
+  </si>
+  <si>
+    <t>The person who operated the recording device. In the case of a written task type, it identifies the person who operated the software to create the written transcription.</t>
+  </si>
+  <si>
+    <t>Speakers</t>
+  </si>
+  <si>
+    <t>Person (0+)</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>TaskTypes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial set: Original, Oral transcription, Oral translation, Oral discussion, Written transcription, Written translation, Written discussion
+</t>
+  </si>
+  <si>
+    <t>Devices</t>
+  </si>
+  <si>
+    <t>Channels</t>
+  </si>
+  <si>
+    <t>BitDepths</t>
+  </si>
+  <si>
+    <t>SamplingRates</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Initially: Open, Restricted</t>
+  </si>
+  <si>
+    <t>Notes that explain exactly what is in the file if there is more than one file for the same task type of the same item. The column should also be used to describe known problems in the recording.</t>
+  </si>
+  <si>
+    <t>Microphone</t>
   </si>
 </sst>
 </file>
@@ -643,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -651,13 +781,149 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:J44" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:J44"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Level"/>
+    <tableColumn id="3" name="Type"/>
+    <tableColumn id="4" name="Choices"/>
+    <tableColumn id="5" name="Required?"/>
+    <tableColumn id="6" name="Default"/>
+    <tableColumn id="7" name="Related Field in Mead's doc"/>
+    <tableColumn id="8" name="Notes"/>
+    <tableColumn id="9" name="English Field Name"/>
+    <tableColumn id="10" name="English User Doc"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J26" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:J26">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="EnglishFieldName"/>
+    <tableColumn id="3" name="Level"/>
+    <tableColumn id="4" name="Type"/>
+    <tableColumn id="5" name="Reuse in future"/>
+    <tableColumn id="6" name="Required?"/>
+    <tableColumn id="7" name="Default"/>
+    <tableColumn id="8" name="Source"/>
+    <tableColumn id="9" name="Notes"/>
+    <tableColumn id="10" name="English User Doc" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:J15" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:J15"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Field"/>
+    <tableColumn id="2" name="Level"/>
+    <tableColumn id="3" name="Type"/>
+    <tableColumn id="4" name="Choices"/>
+    <tableColumn id="5" name="Required?"/>
+    <tableColumn id="6" name="Default"/>
+    <tableColumn id="7" name="Related Field in Mead's doc"/>
+    <tableColumn id="8" name="Notes"/>
+    <tableColumn id="9" name="English Field Name"/>
+    <tableColumn id="10" name="English User Doc"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -945,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -957,9 +1223,10 @@
     <col min="3" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1">
@@ -973,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -988,35 +1255,35 @@
         <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1067,7 +1334,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
         <v>31</v>
@@ -1110,7 +1377,7 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -1119,7 +1386,7 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1142,7 +1409,7 @@
         <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1165,7 +1432,7 @@
         <v>57</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1193,7 +1460,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>38</v>
@@ -1213,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>40</v>
@@ -1258,7 +1525,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -1270,10 +1537,10 @@
         <v>36</v>
       </c>
       <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" t="s">
         <v>121</v>
-      </c>
-      <c r="I14" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1307,7 +1574,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1707,13 +1974,13 @@
         <v>25</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="E36" t="s">
         <v>36</v>
@@ -1727,13 +1994,13 @@
         <v>26</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
@@ -1747,7 +2014,7 @@
         <v>27</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
         <v>39</v>
@@ -1800,21 +2067,104 @@
       </c>
       <c r="I40" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>162</v>
+      </c>
+      <c r="H44" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1823,7 +2173,8 @@
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
     <col min="10" max="10" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1832,7 +2183,7 @@
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>60</v>
@@ -1850,46 +2201,46 @@
         <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1904,21 +2255,24 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>141</v>
+      </c>
+      <c r="I3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" hidden="1">
       <c r="A4" t="s">
         <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -1930,10 +2284,10 @@
         <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -1953,15 +2307,15 @@
         <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" hidden="1">
       <c r="A6" t="s">
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -1984,10 +2338,10 @@
         <v>64</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -1996,7 +2350,7 @@
         <v>36</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2004,7 +2358,7 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2019,15 +2373,15 @@
         <v>36</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" hidden="1">
       <c r="A9" t="s">
         <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2044,10 +2398,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2056,15 +2410,15 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2073,7 +2427,10 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2081,7 +2438,7 @@
         <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2090,18 +2447,21 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -2110,26 +2470,28 @@
         <v>34</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="H13" t="s">
+        <v>142</v>
+      </c>
       <c r="I13" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -2138,15 +2500,17 @@
         <v>34</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="H14" t="s">
+        <v>142</v>
+      </c>
       <c r="I14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -2164,18 +2528,20 @@
         <v>34</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="H15" t="s">
+        <v>142</v>
+      </c>
       <c r="I15" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75">
@@ -2192,18 +2558,20 @@
         <v>34</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="H16" t="s">
+        <v>142</v>
+      </c>
       <c r="I16" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75">
@@ -2211,7 +2579,7 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2220,13 +2588,16 @@
         <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
       </c>
+      <c r="H17" t="s">
+        <v>142</v>
+      </c>
       <c r="J17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75">
@@ -2234,7 +2605,7 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -2243,13 +2614,16 @@
         <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
       </c>
+      <c r="H18" t="s">
+        <v>142</v>
+      </c>
       <c r="J18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75">
@@ -2257,7 +2631,7 @@
         <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -2271,8 +2645,11 @@
       <c r="F19" t="s">
         <v>36</v>
       </c>
+      <c r="H19" t="s">
+        <v>142</v>
+      </c>
       <c r="J19" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2280,7 +2657,7 @@
         <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -2293,6 +2670,9 @@
       </c>
       <c r="F20" t="s">
         <v>36</v>
+      </c>
+      <c r="H20" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2314,22 +2694,326 @@
       <c r="F21" t="s">
         <v>36</v>
       </c>
+      <c r="H21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75">
+      <c r="A22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/design/MetaDataModel.xlsx
+++ b/design/MetaDataModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="19260" windowHeight="6255"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="16725" windowHeight="9675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Session" sheetId="1" r:id="rId1"/>
@@ -808,6 +808,23 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -840,30 +857,13 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:J44" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:J44" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:J44"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Field"/>
@@ -901,14 +901,14 @@
     <tableColumn id="7" name="Default"/>
     <tableColumn id="8" name="Source"/>
     <tableColumn id="9" name="Notes"/>
-    <tableColumn id="10" name="English User Doc" dataDxfId="3"/>
+    <tableColumn id="10" name="English User Doc" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:J15" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:J15" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:J15"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Field"/>
@@ -1213,7 +1213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2163,7 +2163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
